--- a/TestData/Oppurtunities/TestCaseSelection.xlsx
+++ b/TestData/Oppurtunities/TestCaseSelection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Run</t>
   </si>
@@ -22,19 +22,10 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>TestCaseName</t>
   </si>
   <si>
     <t>ScriptPath1</t>
-  </si>
-  <si>
-    <t>Resources\Generic_FunctionLibrary\Oppurtunities\LogOut</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>AddProduct</t>
@@ -397,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -414,65 +405,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
